--- a/netcdf/blowsea_salinity.xlsx
+++ b/netcdf/blowsea_salinity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananth/Desktop/jupyter_local/jupyter_local/netcdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354C7D1-DC43-DD45-B742-8856048A8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD278C28-53EF-1841-B754-6FD640CADEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21760" yWindow="500" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_cleanup" sheetId="3" r:id="rId1"/>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A6EF94-DFA0-E84F-AD4D-14E73A80AB2C}">
   <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8611,8 +8611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
